--- a/MainTop/11.08.2025 бирки/print_print_sorted.xlsx
+++ b/MainTop/11.08.2025 бирки/print_print_sorted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\11.08.2025 бирки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\11.08.2025 бирки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CDC036-B107-4C4F-B693-D0DB7E01A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D0213-0E4D-4CD9-9DC9-DF08E86384A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Артикул</t>
-  </si>
-  <si>
-    <t>Среднее количество заказов в сутки: делим количество всех заказов за 28 дней на количество дней, когда товар был в наличии</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
   </si>
   <si>
     <t>Num_Copies</t>
@@ -152,7 +146,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -455,16 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,294 +473,205 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="2">
-        <v>27.04</v>
-      </c>
-      <c r="C2" s="2">
-        <v>94.64</v>
-      </c>
-      <c r="D2" s="2">
         <v>96</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="2">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>6.71</v>
-      </c>
-      <c r="C3" s="2">
-        <v>23.484999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3.61</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12.635</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3.43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12.005000000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12.494999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.89</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10.115</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.82</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7.875</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
-        <v>1.61</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5.6350000000000007</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3.1150000000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3.64</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>